--- a/stats2/tables/table1_1.xlsx
+++ b/stats2/tables/table1_1.xlsx
@@ -448,105 +448,105 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>[-3.48576, -2.88202]</t>
+          <t>[-3.48576, -2.73664]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02105263157894737</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>(-2.88202, -2.27828]</t>
+          <t>(-2.73664, -1.98752]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05789473684210526</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>(-2.27828, -1.67454]</t>
+          <t>(-1.98752, -1.23841]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>0.131578947368421</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>(-1.67454, -1.07080]</t>
+          <t>(-1.23841, -0.48929]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1473684210526316</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>(-1.07080, -0.46706]</t>
+          <t>(-0.48929, 0.25983]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1947368421052632</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>(-0.46706, 0.13668]</t>
+          <t>(0.25983, 1.00894]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2315789473684211</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>(0.13668, 0.74042]</t>
+          <t>(1.00894, 1.75806]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1473684210526316</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>(0.74042, 1.34416]</t>
+          <t>(1.75806, 2.50718]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06315789473684211</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9947368421052631</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
